--- a/documentation/Requirements.xlsx
+++ b/documentation/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SERVERMS30\usuarios$\secundaria\nicolas.philippe\Documents\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46A1F17-1E29-40E3-9E5B-EB71C4FEBF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C5053-CE7D-4571-BDE9-603A38AEFE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{12B4F157-C9AF-40D6-AEE9-D4D850890CE4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Functional Requirements</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Performance Requirements</t>
+  </si>
+  <si>
+    <t>The game actions and updates SHOULD have fast response times.</t>
   </si>
 </sst>
 </file>
@@ -99,13 +102,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -445,43 +451,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8702EB-DE84-4172-A0A3-59C550F552CE}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:1" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/Requirements.xlsx
+++ b/documentation/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SERVERMS30\usuarios$\secundaria\nicolas.philippe\Documents\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C5053-CE7D-4571-BDE9-603A38AEFE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488CF3EA-3D68-4678-B05A-1BF1D5B44AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{12B4F157-C9AF-40D6-AEE9-D4D850890CE4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Functional Requirements</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>The game actions and updates SHOULD have fast response times.</t>
+  </si>
+  <si>
+    <t>The interface SHOULD be intuitive and user-friendly.</t>
+  </si>
+  <si>
+    <t>The system SHOULD provide clear instructions and feedback for users</t>
   </si>
 </sst>
 </file>
@@ -76,7 +82,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -117,6 +129,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8702EB-DE84-4172-A0A3-59C550F552CE}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,18 +488,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="4" spans="1:1" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/Requirements.xlsx
+++ b/documentation/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agoraisbarcelonaedu-my.sharepoint.com/personal/nicolas_desaintaubert_agoraisbarcelona_edu_es/Documents/material/IB 2/Internal Example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SERVERMS30\usuarios$\secundaria\nicolas.philippe\Documents\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76FCEBFF-38B4-4993-BBB3-32881AC074A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E8765E-39AC-46B0-85A5-4EFAB1C708C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{12B4F157-C9AF-40D6-AEE9-D4D850890CE4}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16830" windowHeight="6405" xr2:uid="{12B4F157-C9AF-40D6-AEE9-D4D850890CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Users MUST be able to create new avatars or select existing ones from a dropdown list.</t>
   </si>
   <si>
-    <t>Users MUST be able to correct or delete avatar names.</t>
-  </si>
-  <si>
     <t>3. Gameplay:</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>The system MUST maintain and update scores for each game.</t>
   </si>
   <si>
-    <t>The main page MUST display the top ten players and the current player’s ranking.</t>
-  </si>
-  <si>
     <t>Usability Requirements</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>The system SHOULD efficiently handle player data and game state.</t>
+  </si>
+  <si>
+    <t>The main page MUST display the top five players and the current player’s ranking.</t>
+  </si>
+  <si>
+    <t>Users MUST be able to correct avatar names.</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8702EB-DE84-4172-A0A3-59C550F552CE}">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,72 +547,72 @@
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
